--- a/out/production/Codegym-Module-2-Advanced-Programming-with-Java/case_study_Enjoy_Galaxy/feature-introduction.xlsx
+++ b/out/production/Codegym-Module-2-Advanced-Programming-with-Java/case_study_Enjoy_Galaxy/feature-introduction.xlsx
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -245,11 +251,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -278,6 +281,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,7 +584,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,126 +594,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/out/production/Codegym-Module-2-Advanced-Programming-with-Java/case_study_Enjoy_Galaxy/feature-introduction.xlsx
+++ b/out/production/Codegym-Module-2-Advanced-Programming-with-Java/case_study_Enjoy_Galaxy/feature-introduction.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin" sheetId="2" r:id="rId2"/>
+    <sheet name="Staff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>TÍNH NĂNG CƠ BẢN</t>
   </si>
@@ -76,7 +78,7 @@
     <t>Mua vé kiểu 1 (Khi đang xem danh sách phim, chọn phim)</t>
   </si>
   <si>
-    <t>Tự động trừ tiền trong tài khoản</t>
+    <t>Tính tiền vé dựa trên loại ghế ngồi và loại phòng chiếu, Tự động trừ tiền trong tài khoản</t>
   </si>
   <si>
     <t>1. Chọn phim -&gt; chọn rạp -&gt; chọn suất chiếu -&gt; mua vé</t>
@@ -98,6 +100,36 @@
   </si>
   <si>
     <t>Xem thông tin vé theo mã vé</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa hiển thị nhân viên</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa hiển thị phim</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa ghế</t>
+  </si>
+  <si>
+    <t>thêm sửa xóa hiển thị phòng chiếu</t>
+  </si>
+  <si>
+    <t>thêm sửa xóa hiển thị rạp chiếu</t>
+  </si>
+  <si>
+    <t>thêm suất chiếu theo giờ thực tế, cảnh báo khi bị hổng thời gian giữa 2 suất chiếu</t>
+  </si>
+  <si>
+    <t>kiểm tra doanh thu theo ngày, theo tháng</t>
+  </si>
+  <si>
+    <t>Xem danh sách customer</t>
+  </si>
+  <si>
+    <t>thêm xóa xửa phim</t>
+  </si>
+  <si>
+    <t>checkin và thanh toán vé cho khách</t>
   </si>
 </sst>
 </file>
@@ -105,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,24 +158,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,91 +191,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +279,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +316,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,157 +472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +621,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,8 +657,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,188 +703,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,6 +869,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1191,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1255,21 +1283,21 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="29" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="29" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1282,46 +1310,46 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1335,4 +1363,94 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="91.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="23.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>